--- a/صيدليات دكتور مصطفي طلعت_2026-01-13_16-30.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-13_16-30.xlsx
@@ -86,6 +86,15 @@
     <t>CLEXANE 40MG/0.4ML 2 PREFILLED SYRINGE</t>
   </si>
   <si>
+    <t>COLOSPASMIN FORTE 135MG 20 SUGAR COATED TAB.</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>0:2</t>
+  </si>
+  <si>
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
@@ -95,9 +104,6 @@
     <t>DANSET 8MG/4ML 3 AMP.</t>
   </si>
   <si>
-    <t>0:2</t>
-  </si>
-  <si>
     <t>0:3</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
   </si>
   <si>
     <t>PROXIMOL 0.4MG 40 TAB</t>
+  </si>
+  <si>
+    <t>ROWATINEX 45 CAPSULES</t>
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
@@ -1145,11 +1154,11 @@
       <c r="J15" s="8"/>
       <c r="K15" s="8"/>
       <c r="L15" s="9">
-        <v>66</v>
+        <v>25.5</v>
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1157,7 +1166,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1165,17 +1174,17 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" ht="25.5" customHeight="1">
@@ -1191,17 +1200,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1223,11 +1232,11 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" ht="24.75" customHeight="1">
@@ -1249,7 +1258,7 @@
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
@@ -1269,17 +1278,17 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" ht="24.75" customHeight="1">
@@ -1287,7 +1296,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1295,17 +1304,17 @@
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
       <c t="s" r="H21" s="8">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="I21" s="8"/>
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1321,13 +1330,13 @@
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
       <c t="s" r="H22" s="8">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="I22" s="8"/>
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1339,7 +1348,7 @@
         <v>20</v>
       </c>
       <c t="s" r="B23" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
@@ -1347,13 +1356,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>46</v>
+        <v>162</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1365,7 +1374,7 @@
         <v>21</v>
       </c>
       <c t="s" r="B24" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
@@ -1373,13 +1382,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>194</v>
+        <v>46</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1391,7 +1400,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1399,13 +1408,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>43</v>
+        <v>20</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>26</v>
+        <v>194</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
@@ -1425,17 +1434,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1443,7 +1452,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1451,13 +1460,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>55.670000000000002</v>
+        <v>29</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
@@ -1469,7 +1478,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1477,17 +1486,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>74</v>
+        <v>55.670000000000002</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1495,7 +1504,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1503,13 +1512,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1521,7 +1530,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1529,13 +1538,13 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
@@ -1547,7 +1556,7 @@
         <v>28</v>
       </c>
       <c t="s" r="B31" s="7">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
@@ -1555,13 +1564,13 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
@@ -1573,7 +1582,7 @@
         <v>29</v>
       </c>
       <c t="s" r="B32" s="7">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
@@ -1587,7 +1596,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
@@ -1599,7 +1608,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1607,13 +1616,13 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>100</v>
+        <v>31</v>
       </c>
       <c r="M33" s="9"/>
       <c t="s" r="N33" s="7">
@@ -1625,7 +1634,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1639,7 +1648,7 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>53</v>
+        <v>100</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
@@ -1651,7 +1660,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1659,17 +1668,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1685,17 +1694,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1703,7 +1712,7 @@
         <v>34</v>
       </c>
       <c t="s" r="B37" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
@@ -1711,17 +1720,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>57</v>
+        <v>20</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>440</v>
+        <v>41</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>58</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1729,7 +1738,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1737,17 +1746,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>36</v>
+        <v>440</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>28</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1769,11 +1778,11 @@
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1789,17 +1798,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1807,7 +1816,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,13 +1824,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1833,7 +1842,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1841,13 +1850,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1859,7 +1868,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,13 +1876,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -1885,7 +1894,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1893,13 +1902,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -1919,17 +1928,17 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>22.5</v>
+        <v>50</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>57</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1946,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,17 +1954,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1971,17 +1980,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>50</v>
+        <v>22.5</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>8</v>
+        <v>59</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1989,7 +1998,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1997,17 +2006,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>192</v>
+        <v>63</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2015,7 +2024,7 @@
         <v>46</v>
       </c>
       <c t="s" r="B49" s="7">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -2023,13 +2032,13 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
@@ -2049,17 +2058,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>78</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2067,7 +2076,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2075,13 +2084,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2093,7 +2102,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2101,17 +2110,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>8</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2119,7 +2128,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2127,13 +2136,13 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
@@ -2153,51 +2162,103 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c t="s" r="H54" s="8">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="I54" s="8"/>
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="55" ht="26.25" customHeight="1">
-      <c r="K55" s="10">
-        <v>3269.9499999999998</v>
-      </c>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-    </row>
-    <row r="56" ht="16.5" customHeight="1">
-      <c t="s" r="A56" s="11">
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
         <v>84</v>
       </c>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c t="s" r="F56" s="12">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
         <v>85</v>
       </c>
-      <c r="G56" s="12"/>
-      <c r="H56" s="13"/>
-      <c t="s" r="I56" s="14">
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>24</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" ht="24.75" customHeight="1">
+      <c r="A56" s="6">
+        <v>53</v>
+      </c>
+      <c t="s" r="B56" s="7">
         <v>86</v>
       </c>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
-      <c r="L56" s="14"/>
-      <c r="M56" s="14"/>
-      <c r="N56" s="14"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c t="s" r="H56" s="8">
+        <v>22</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="J56" s="8"/>
+      <c r="K56" s="8"/>
+      <c r="L56" s="9">
+        <v>20</v>
+      </c>
+      <c r="M56" s="9"/>
+      <c t="s" r="N56" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" ht="26.25" customHeight="1">
+      <c r="K57" s="10">
+        <v>3319.4499999999998</v>
+      </c>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+    </row>
+    <row r="58" ht="16.5" customHeight="1">
+      <c t="s" r="A58" s="11">
+        <v>87</v>
+      </c>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c t="s" r="F58" s="12">
+        <v>88</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="13"/>
+      <c t="s" r="I58" s="14">
+        <v>89</v>
+      </c>
+      <c r="J58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="14"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="164">
+  <mergeCells count="170">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2358,10 +2419,16 @@
     <mergeCell ref="B54:G54"/>
     <mergeCell ref="H54:K54"/>
     <mergeCell ref="L54:M54"/>
-    <mergeCell ref="K55:N55"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="I56:N56"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="B56:G56"/>
+    <mergeCell ref="H56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="K57:N57"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="I58:N58"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
